--- a/MIR3502/MIR3506端口表.xlsx
+++ b/MIR3502/MIR3506端口表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="13140"/>
+    <workbookView windowWidth="21000" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
   <si>
     <t>MIR3506扩展IO模块</t>
   </si>
@@ -313,6 +313,9 @@
     <t>VCC</t>
   </si>
   <si>
+    <t>9~36V DC</t>
+  </si>
+  <si>
     <t>14:</t>
   </si>
   <si>
@@ -465,10 +468,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -502,6 +505,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -511,10 +574,70 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,126 +648,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -655,109 +658,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,73 +826,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +871,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,6 +947,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -898,216 +964,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1455,7 +1458,7 @@
   <dimension ref="G3:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1707,11 +1710,13 @@
       <c r="L17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="7:13">
       <c r="G18" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1720,17 +1725,19 @@
       <c r="L18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="7:14">
       <c r="G19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1739,18 +1746,18 @@
         <v>11</v>
       </c>
       <c r="N19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="7:14">
       <c r="G20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1759,18 +1766,18 @@
         <v>11</v>
       </c>
       <c r="N20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="7:14">
       <c r="G21" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1779,18 +1786,18 @@
         <v>11</v>
       </c>
       <c r="N21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="7:14">
       <c r="G22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1799,18 +1806,18 @@
         <v>11</v>
       </c>
       <c r="N22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="7:14">
       <c r="G23" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1819,18 +1826,18 @@
         <v>11</v>
       </c>
       <c r="N23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="7:14">
       <c r="G24" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1839,55 +1846,55 @@
         <v>11</v>
       </c>
       <c r="N24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="7:13">
       <c r="G25" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="7:13">
       <c r="G26" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="7:13">
       <c r="G27" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="7:15">
       <c r="G28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1899,11 +1906,11 @@
     </row>
     <row r="29" spans="7:15">
       <c r="G29" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="6"/>
@@ -1915,11 +1922,11 @@
     </row>
     <row r="30" spans="7:15">
       <c r="G30" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="6"/>
@@ -1931,11 +1938,11 @@
     </row>
     <row r="31" spans="7:15">
       <c r="G31" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -1947,11 +1954,11 @@
     </row>
     <row r="32" spans="7:15">
       <c r="G32" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -1963,11 +1970,11 @@
     </row>
     <row r="33" spans="7:15">
       <c r="G33" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -1979,11 +1986,11 @@
     </row>
     <row r="34" spans="7:15">
       <c r="G34" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -1995,11 +2002,11 @@
     </row>
     <row r="35" spans="7:15">
       <c r="G35" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -2011,11 +2018,11 @@
     </row>
     <row r="36" spans="7:15">
       <c r="G36" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -2027,11 +2034,11 @@
     </row>
     <row r="37" spans="7:15">
       <c r="G37" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2043,11 +2050,11 @@
     </row>
     <row r="38" spans="7:15">
       <c r="G38" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -2059,11 +2066,11 @@
     </row>
     <row r="39" spans="7:15">
       <c r="G39" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>

--- a/MIR3502/MIR3506端口表.xlsx
+++ b/MIR3502/MIR3506端口表.xlsx
@@ -4,17 +4,75 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12270"/>
+    <workbookView windowWidth="28125" windowHeight="13125" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="端口数量" sheetId="2" r:id="rId1"/>
+    <sheet name="管脚定义" sheetId="1" r:id="rId2"/>
+    <sheet name="CAN通信协议" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="159">
+  <si>
+    <r>
+      <t>MIR3506</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>端口表（共计：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>复用类型</t>
+  </si>
+  <si>
+    <t>端口数量</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>AI/DI</t>
+  </si>
+  <si>
+    <t>DI/DO</t>
+  </si>
+  <si>
+    <t>合计：</t>
+  </si>
+  <si>
+    <t>累计：</t>
+  </si>
   <si>
     <t>MIR3506扩展IO模块</t>
   </si>
@@ -462,6 +520,162 @@
   <si>
     <t>DI-18</t>
   </si>
+  <si>
+    <t>插座A（左）</t>
+  </si>
+  <si>
+    <t>插座B（右）</t>
+  </si>
+  <si>
+    <t>CAN0_H</t>
+  </si>
+  <si>
+    <t>R-</t>
+  </si>
+  <si>
+    <t>CAN0_L</t>
+  </si>
+  <si>
+    <t>R+</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>T+</t>
+  </si>
+  <si>
+    <t>T-</t>
+  </si>
+  <si>
+    <t>MIR3506 CAN总线协议（用于EtherCAT的热备用通道）</t>
+  </si>
+  <si>
+    <t>上行：</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>ID（基本帧）</t>
+  </si>
+  <si>
+    <t>byte0</t>
+  </si>
+  <si>
+    <t>byte1</t>
+  </si>
+  <si>
+    <t>byte2</t>
+  </si>
+  <si>
+    <t>byte3</t>
+  </si>
+  <si>
+    <t>byte4</t>
+  </si>
+  <si>
+    <t>byte5</t>
+  </si>
+  <si>
+    <t>byte6</t>
+  </si>
+  <si>
+    <t>byte7</t>
+  </si>
+  <si>
+    <t>AI00_L</t>
+  </si>
+  <si>
+    <t>AI00_H</t>
+  </si>
+  <si>
+    <t>AI01_L</t>
+  </si>
+  <si>
+    <t>AI01_H</t>
+  </si>
+  <si>
+    <t>AI02_L</t>
+  </si>
+  <si>
+    <t>AI02_H</t>
+  </si>
+  <si>
+    <t>AI03_L</t>
+  </si>
+  <si>
+    <t>AI03_H</t>
+  </si>
+  <si>
+    <t>AI04_L</t>
+  </si>
+  <si>
+    <t>AI04_H</t>
+  </si>
+  <si>
+    <t>AI05_L</t>
+  </si>
+  <si>
+    <t>AI05_H</t>
+  </si>
+  <si>
+    <t>DI7~0</t>
+  </si>
+  <si>
+    <t>DI15~8</t>
+  </si>
+  <si>
+    <t>DI23~16</t>
+  </si>
+  <si>
+    <t>DI31~24</t>
+  </si>
+  <si>
+    <t>res0=0</t>
+  </si>
+  <si>
+    <t>res1=0</t>
+  </si>
+  <si>
+    <t>VCC_L</t>
+  </si>
+  <si>
+    <t>VCC_H</t>
+  </si>
+  <si>
+    <t>下行：</t>
+  </si>
+  <si>
+    <t>DO7~0</t>
+  </si>
+  <si>
+    <t>DO15~8</t>
+  </si>
+  <si>
+    <t>DO23~16</t>
+  </si>
+  <si>
+    <t>AI_Off</t>
+  </si>
+  <si>
+    <t>PWM00_L</t>
+  </si>
+  <si>
+    <t>PWM00_H</t>
+  </si>
+  <si>
+    <t>PWM01_L</t>
+  </si>
+  <si>
+    <t>PWM01_H</t>
+  </si>
+  <si>
+    <t>AI_Off：</t>
+  </si>
+  <si>
+    <t>每个位分别用于关闭300~307的发送</t>
+  </si>
 </sst>
 </file>
 
@@ -473,7 +687,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,8 +719,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,16 +748,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,7 +771,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,9 +793,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,9 +823,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,30 +847,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,20 +860,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,16 +867,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,37 +877,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,97 +1057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,48 +1069,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -867,11 +1098,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,22 +1165,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,6 +1181,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,8 +1227,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,10 +1266,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,139 +1278,160 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,17 +1439,32 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1455,634 +1785,1324 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="G3:O39"/>
+  <dimension ref="B3:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15">
+        <v>6</v>
+      </c>
+      <c r="D5" s="22">
+        <v>6</v>
+      </c>
+      <c r="E5" s="22">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="15">
+        <v>12</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15">
+        <v>12</v>
+      </c>
+      <c r="F6" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15">
+        <v>12</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15">
+        <v>12</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15">
+        <f>SUM(C5:C7)</f>
+        <v>30</v>
+      </c>
+      <c r="D8" s="15">
+        <f>SUM(D5:D7)</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="15">
+        <f>SUM(E5:E7)</f>
+        <v>30</v>
+      </c>
+      <c r="F8" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="10"/>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="15">
+        <f>SUM(D8:D8)</f>
+        <v>6</v>
+      </c>
+      <c r="E9" s="15">
+        <f>SUM(E8:E8)</f>
+        <v>30</v>
+      </c>
+      <c r="F9" s="15">
+        <f>SUM(F8:F8)</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D1:K77"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="28.625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="7:7">
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="36.75" spans="7:13">
-      <c r="G4" s="1" t="s">
+    <row r="1" spans="4:4">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="36.75" spans="4:10">
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="4:10">
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10">
+      <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10">
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="D6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="D7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="D8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10">
+      <c r="D9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="D10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="D11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10">
+      <c r="D12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10">
+      <c r="D13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
+      <c r="D14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10">
+      <c r="D15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10">
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11">
+      <c r="D17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11">
+      <c r="D18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11">
+      <c r="D19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11">
+      <c r="D20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="D21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11">
+      <c r="D22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10">
+      <c r="D23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="4:10">
+      <c r="D24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="4:10">
+      <c r="D25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="4:10">
+      <c r="D26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10">
+      <c r="D27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10">
+      <c r="D28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10">
+      <c r="D29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10">
+      <c r="D30" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10">
+      <c r="D31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10">
+      <c r="D32" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10">
+      <c r="D33" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10">
+      <c r="D34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10">
+      <c r="D35" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10">
+      <c r="D36" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10">
+      <c r="D37" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="11:11">
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="5:11">
+      <c r="E39" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="H39" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="K39" s="17"/>
+    </row>
+    <row r="40" spans="5:11">
+      <c r="E40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="H40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="10"/>
+      <c r="K40" s="17"/>
+    </row>
+    <row r="41" spans="5:9">
+      <c r="E41" s="15">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="F41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="15">
+        <v>1</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9">
+      <c r="E42" s="15">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="F42" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" s="15">
+        <v>2</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9">
+      <c r="E43" s="15">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="F43" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="15">
+        <v>3</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9">
+      <c r="E44" s="15">
         <v>4</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="F44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="15">
+        <v>4</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9">
+      <c r="E45" s="15">
         <v>5</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="F45" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="15">
+        <v>5</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9">
+      <c r="E46" s="15">
         <v>6</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="F46" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="15">
+        <v>6</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9">
+      <c r="E47" s="15">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="7:13">
-      <c r="G5" s="3" t="s">
+      <c r="F47" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="15">
+        <v>7</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9">
+      <c r="E48" s="15">
         <v>8</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="F48" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" s="15">
+        <v>8</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10">
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+    </row>
+    <row r="69" spans="6:10">
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="18"/>
+    </row>
+    <row r="70" spans="6:10">
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="6:10">
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+    </row>
+    <row r="72" spans="6:10">
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+    </row>
+    <row r="73" spans="6:10">
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+    </row>
+    <row r="74" spans="6:10">
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+    </row>
+    <row r="75" spans="6:10">
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+    </row>
+    <row r="76" spans="6:10">
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+    </row>
+    <row r="77" spans="6:10">
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="H39:I39"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="3:11">
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>300</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>301</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>302</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>303</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>304</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>305</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>306</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="2">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>307</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="7:13">
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="7:13">
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="7:13">
-      <c r="G8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="7:13">
-      <c r="G9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="7:13">
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="7:13">
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="7:13">
-      <c r="G12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="7:13">
-      <c r="G13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="7:13">
+      <c r="C14" s="3">
+        <v>308</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="I14" s="3" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="7:13">
-      <c r="G15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="7:13">
-      <c r="G16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="7:13">
-      <c r="G17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="7:13">
-      <c r="G18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="7:14">
-      <c r="G19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="7:14">
-      <c r="G20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="7:14">
-      <c r="G21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="7:14">
-      <c r="G22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="7:14">
-      <c r="G23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="7:14">
-      <c r="G24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="7:13">
-      <c r="G25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="7:13">
-      <c r="G26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="7:13">
-      <c r="G27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="7:15">
-      <c r="G28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="7:15">
-      <c r="G29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="7:15">
-      <c r="G30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="7:15">
-      <c r="G31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O31" s="7"/>
-    </row>
-    <row r="32" spans="7:15">
-      <c r="G32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O32" s="7"/>
-    </row>
-    <row r="33" spans="7:15">
-      <c r="G33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O33" s="7"/>
-    </row>
-    <row r="34" spans="7:15">
-      <c r="G34" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="7:15">
-      <c r="G35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="7:15">
-      <c r="G36" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="7:15">
-      <c r="G37" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="7:15">
-      <c r="G38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="39" spans="7:15">
-      <c r="G39" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O39" s="7"/>
+        <v>146</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>400</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="E20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="O28:O39"/>
+  <mergeCells count="3">
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:K20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MIR3502/MIR3506端口表.xlsx
+++ b/MIR3502/MIR3506端口表.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13125" activeTab="2"/>
+    <workbookView windowWidth="28110" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="端口数量" sheetId="2" r:id="rId1"/>
     <sheet name="管脚定义" sheetId="1" r:id="rId2"/>
     <sheet name="CAN通信协议" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
@@ -19,6 +19,11 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="159">
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>MIR3506</t>
     </r>
     <r>
@@ -682,10 +687,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -724,9 +729,52 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,45 +788,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,9 +804,41 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -808,53 +851,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,6 +865,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -889,187 +894,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,15 +1166,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1181,30 +1177,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,8 +1199,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1250,6 +1222,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1263,148 +1268,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1788,7 +1793,7 @@
   <dimension ref="B3:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1917,8 +1922,8 @@
   <sheetPr/>
   <dimension ref="D1:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2746,8 +2751,8 @@
   <sheetPr/>
   <dimension ref="B3:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/MIR3502/MIR3506端口表.xlsx
+++ b/MIR3502/MIR3506端口表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="160">
   <si>
     <r>
       <rPr>
@@ -224,11 +224,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
       <t>DI</t>
     </r>
     <r>
@@ -237,7 +232,33 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>高有效</t>
+      <t>高有效；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+DO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出容量：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.5A</t>
     </r>
   </si>
   <si>
@@ -389,6 +410,28 @@
   </si>
   <si>
     <t>DI-05</t>
+  </si>
+  <si>
+    <r>
+      <t>DI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高有效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>0~5V  AI输入</t>
@@ -729,16 +772,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,30 +793,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,65 +808,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,6 +832,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -894,187 +937,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,6 +1239,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1228,41 +1306,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1271,10 +1314,10 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1283,137 +1326,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1455,6 +1498,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1811,19 +1867,19 @@
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="26" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1834,10 +1890,10 @@
       <c r="C5" s="15">
         <v>6</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="27">
         <v>6</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="27">
         <v>6</v>
       </c>
       <c r="F5" s="15"/>
@@ -1871,7 +1927,7 @@
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="15">
@@ -1922,18 +1978,22 @@
   <sheetPr/>
   <dimension ref="D1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="22.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="36.75" spans="4:10">
+    <row r="2" ht="36.75" spans="4:11">
       <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1955,8 +2015,9 @@
       <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="4:10">
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="4:11">
       <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
@@ -1969,11 +2030,12 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="4:10">
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="4:11">
       <c r="D4" s="10" t="s">
         <v>22</v>
       </c>
@@ -1986,11 +2048,10 @@
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="4:10">
+      <c r="J4" s="18"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="4:11">
       <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
@@ -2003,11 +2064,10 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10">
+      <c r="J5" s="18"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="4:11">
       <c r="D6" s="10" t="s">
         <v>28</v>
       </c>
@@ -2020,11 +2080,10 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10">
+      <c r="J6" s="18"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="4:11">
       <c r="D7" s="10" t="s">
         <v>31</v>
       </c>
@@ -2037,11 +2096,10 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10">
+      <c r="J7" s="18"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="4:11">
       <c r="D8" s="10" t="s">
         <v>34</v>
       </c>
@@ -2054,11 +2112,10 @@
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10">
+      <c r="J8" s="18"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="4:11">
       <c r="D9" s="10" t="s">
         <v>37</v>
       </c>
@@ -2071,11 +2128,10 @@
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10">
+      <c r="J9" s="18"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="4:11">
       <c r="D10" s="10" t="s">
         <v>40</v>
       </c>
@@ -2088,11 +2144,10 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10">
+      <c r="J10" s="18"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="4:11">
       <c r="D11" s="10" t="s">
         <v>43</v>
       </c>
@@ -2105,11 +2160,10 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10">
+      <c r="J11" s="18"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="4:11">
       <c r="D12" s="10" t="s">
         <v>46</v>
       </c>
@@ -2122,11 +2176,10 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10">
+      <c r="J12" s="18"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="4:11">
       <c r="D13" s="10" t="s">
         <v>49</v>
       </c>
@@ -2139,11 +2192,10 @@
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10">
+      <c r="J13" s="18"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="4:11">
       <c r="D14" s="10" t="s">
         <v>52</v>
       </c>
@@ -2156,11 +2208,10 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10">
+      <c r="J14" s="18"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="4:11">
       <c r="D15" s="10" t="s">
         <v>55</v>
       </c>
@@ -2171,11 +2222,12 @@
       <c r="I15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="4:10">
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="4:11">
       <c r="D16" s="10" t="s">
         <v>58</v>
       </c>
@@ -2186,9 +2238,8 @@
       <c r="I16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="4:11">
       <c r="D17" s="10" t="s">
@@ -2203,345 +2254,328 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J17" s="17" t="s">
         <v>62</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="4:11">
       <c r="D18" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>62</v>
+      <c r="J18" s="17"/>
+      <c r="K18" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="4:11">
       <c r="D19" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" t="s">
-        <v>62</v>
+      <c r="J19" s="17"/>
+      <c r="K19" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="4:11">
       <c r="D20" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" t="s">
-        <v>62</v>
+      <c r="J20" s="17"/>
+      <c r="K20" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="4:11">
       <c r="D21" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" t="s">
-        <v>62</v>
+      <c r="J21" s="17"/>
+      <c r="K21" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="4:11">
       <c r="D22" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10">
+      <c r="J22" s="17"/>
+      <c r="K22" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11">
       <c r="D23" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="4:10">
+        <v>80</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="4:11">
       <c r="D24" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="4:10">
+        <v>82</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="4:11">
       <c r="D25" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="4:10">
+        <v>82</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="4:11">
       <c r="D26" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="4:10">
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="4:11">
       <c r="D27" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10">
+      <c r="J27" s="17"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="4:11">
       <c r="D28" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="4:10">
+      <c r="J28" s="17"/>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="4:11">
       <c r="D29" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="4:10">
+      <c r="J29" s="17"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="4:11">
       <c r="D30" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="4:10">
+      <c r="J30" s="17"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="4:11">
       <c r="D31" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10">
+      <c r="J31" s="17"/>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="4:11">
       <c r="D32" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10">
+      <c r="J32" s="17"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="4:11">
       <c r="D33" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10">
+      <c r="J33" s="17"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="4:11">
       <c r="D34" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="4:10">
+      <c r="I34" s="21"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="4:11">
       <c r="D35" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10">
+      <c r="J35" s="17"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="4:11">
       <c r="D36" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="4:10">
+      <c r="J36" s="17"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="4:11">
       <c r="D37" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="J37" s="17"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38" spans="11:11">
-      <c r="K38" s="17"/>
+      <c r="K38" s="22"/>
     </row>
     <row r="39" spans="5:11">
       <c r="E39" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F39" s="14"/>
       <c r="H39" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I39" s="14"/>
-      <c r="K39" s="17"/>
+      <c r="K39" s="22"/>
     </row>
     <row r="40" spans="5:11">
       <c r="E40" s="8" t="s">
@@ -2552,20 +2586,20 @@
         <v>11</v>
       </c>
       <c r="I40" s="10"/>
-      <c r="K40" s="17"/>
+      <c r="K40" s="22"/>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" s="15">
         <v>1</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" s="15">
         <v>1</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="5:9">
@@ -2573,13 +2607,13 @@
         <v>2</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H42" s="15">
         <v>2</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="5:9">
@@ -2587,13 +2621,13 @@
         <v>3</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H43" s="15">
         <v>3</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="5:9">
@@ -2601,13 +2635,13 @@
         <v>4</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H44" s="15">
         <v>4</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="5:9">
@@ -2615,13 +2649,13 @@
         <v>5</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H45" s="15">
         <v>5</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="5:9">
@@ -2629,13 +2663,13 @@
         <v>6</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H46" s="15">
         <v>6</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="5:9">
@@ -2643,13 +2677,13 @@
         <v>7</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H47" s="15">
         <v>7</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="5:9">
@@ -2657,89 +2691,93 @@
         <v>8</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H48" s="15">
         <v>8</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="6:10">
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
     </row>
     <row r="69" spans="6:10">
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="18"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="23"/>
     </row>
     <row r="70" spans="6:10">
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
     </row>
     <row r="71" spans="6:10">
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
     </row>
     <row r="72" spans="6:10">
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
     </row>
     <row r="73" spans="6:10">
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
     </row>
     <row r="74" spans="6:10">
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
     </row>
     <row r="75" spans="6:10">
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
     </row>
     <row r="76" spans="6:10">
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
     </row>
     <row r="77" spans="6:10">
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J3:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="J26:J37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2759,7 +2797,7 @@
   <sheetData>
     <row r="3" spans="3:11">
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2772,7 +2810,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2786,34 +2824,34 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -2824,28 +2862,28 @@
         <v>300</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -2856,16 +2894,16 @@
         <v>301</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2976,28 +3014,28 @@
         <v>308</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -3014,7 +3052,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3028,34 +3066,34 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -3066,37 +3104,37 @@
         <v>400</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="5:11">
       <c r="E20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
